--- a/data/02 INE Spain CV population stocks and flows 2002 2025.xlsx
+++ b/data/02 INE Spain CV population stocks and flows 2002 2025.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Spain" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Int_migration_RVS_Spain_Table_r" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Valencian Community" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t xml:space="preserve">INE Resident population 2003 2008</t>
   </si>
@@ -59,6 +61,63 @@
   </si>
   <si>
     <t xml:space="preserve">% Foreign nationals/Total population Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External migration. International migration flows (1). International Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total balance </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ine.es/dyngs/INEbase/en/operacion.htm?c=Estadistica_C&amp;cid=1254736177013&amp;menu=ultiDatos&amp;idp=1254734710990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)The Residential Variation Statistics (RVS)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Residential Variation Statistics (RVS) are compiled by the INE, basically from the exploitation of the information regarding registrations and cancellations due to changes of residence registered in the Municipal Registers, with variation dates from the reference year, and reflected in the INE register database up to the month of March (inclusive) of the year following the year of the study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential Variation statistics 1998-2019 Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International migration flows in Spain. 1998-2020 period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    International balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Spaniards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Foreigners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Residential Variation Statistics (RVS)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALANCES DUE TO RESIDENTIAL VARIATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RVS URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ine.es/jaxi/Datos.htm?path=/t20/p307/serie/l1/&amp;file=3_1.px</t>
   </si>
   <si>
     <t xml:space="preserve">Comunitat Valenciana</t>
@@ -76,11 +135,12 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,10 +162,43 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF1E90FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -117,8 +210,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,12 +233,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDEEEC"/>
+        <bgColor rgb="FFF3F4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F4F7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF3F4F7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="23">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -161,10 +273,73 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="double"/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -183,6 +358,27 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="double"/>
       <right/>
       <top/>
@@ -190,7 +386,35 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
@@ -222,20 +446,116 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,36 +563,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,7 +689,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF3F4F7"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDEEEC"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -326,7 +710,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF1E90FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -352,18 +736,1455 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:AB15"/>
+  <dimension ref="B3:AB25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.64"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2005</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>41035271</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>41827836</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>42547454</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>43296335</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>44009969</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>44784659</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>45668938</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>46239271</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>46486621</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>46667175</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>46818216</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>46712650</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>46495744</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>46425722</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>46418884</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>46497393</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>46645070</v>
+      </c>
+      <c r="V9" s="9" t="n">
+        <v>46918951</v>
+      </c>
+      <c r="W9" s="9" t="n">
+        <v>47318050</v>
+      </c>
+      <c r="X9" s="9" t="n">
+        <v>47400798</v>
+      </c>
+      <c r="Y9" s="9" t="n">
+        <v>47486727</v>
+      </c>
+      <c r="Z9" s="9" t="n">
+        <v>48085361</v>
+      </c>
+      <c r="AA9" s="9" t="n">
+        <v>48619695</v>
+      </c>
+      <c r="AB9" s="10" t="n">
+        <v>49077984</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>39297299</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>39465808</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>39646666</v>
+      </c>
+      <c r="H10" s="13" t="n">
+        <v>39866131</v>
+      </c>
+      <c r="I10" s="13" t="n">
+        <v>40079053</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>40335225</v>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>40582643</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>40852612</v>
+      </c>
+      <c r="M10" s="13" t="n">
+        <v>41084042</v>
+      </c>
+      <c r="N10" s="13" t="n">
+        <v>41354734</v>
+      </c>
+      <c r="O10" s="13" t="n">
+        <v>41582186</v>
+      </c>
+      <c r="P10" s="13" t="n">
+        <v>41648066</v>
+      </c>
+      <c r="Q10" s="13" t="n">
+        <v>41819392</v>
+      </c>
+      <c r="R10" s="13" t="n">
+        <v>41971737</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>41999550</v>
+      </c>
+      <c r="T10" s="13" t="n">
+        <v>42079740</v>
+      </c>
+      <c r="U10" s="13" t="n">
+        <v>42067748</v>
+      </c>
+      <c r="V10" s="13" t="n">
+        <v>42068189</v>
+      </c>
+      <c r="W10" s="13" t="n">
+        <v>42076772</v>
+      </c>
+      <c r="X10" s="13" t="n">
+        <v>41998096</v>
+      </c>
+      <c r="Y10" s="13" t="n">
+        <v>41977681</v>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <v>41995741</v>
+      </c>
+      <c r="AA10" s="13" t="n">
+        <v>42117413</v>
+      </c>
+      <c r="AB10" s="14" t="n">
+        <v>42225636</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>1737972</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>2362027</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>2900788</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>3430204</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <v>3930916</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>4449434</v>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>5086295</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>5386659</v>
+      </c>
+      <c r="M11" s="13" t="n">
+        <v>5402579</v>
+      </c>
+      <c r="N11" s="13" t="n">
+        <v>5312440</v>
+      </c>
+      <c r="O11" s="13" t="n">
+        <v>5236030</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>5064584</v>
+      </c>
+      <c r="Q11" s="13" t="n">
+        <v>4676352</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>4453985</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>4419334</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>4417653</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>4577322</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>4850762</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>5241278</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>5402702</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>5509046</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>6089620</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>6502282</v>
+      </c>
+      <c r="AB11" s="14" t="n">
+        <v>6852348</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">(E11/E9)</f>
+        <v>0.0423531259242811</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <f aca="false">(F11/F9)</f>
+        <v>0.05647021758429</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <f aca="false">(G11/G9)</f>
+        <v>0.0681777104688802</v>
+      </c>
+      <c r="H12" s="17" t="n">
+        <f aca="false">(H11/H9)</f>
+        <v>0.0792261977832535</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <f aca="false">(I11/I9)</f>
+        <v>0.0893187632102172</v>
+      </c>
+      <c r="J12" s="17" t="n">
+        <f aca="false">(J11/J9)</f>
+        <v>0.0993517445337699</v>
+      </c>
+      <c r="K12" s="17" t="n">
+        <f aca="false">(K11/K9)</f>
+        <v>0.111373183234521</v>
+      </c>
+      <c r="L12" s="17" t="n">
+        <f aca="false">(L11/L9)</f>
+        <v>0.116495327099772</v>
+      </c>
+      <c r="M12" s="17" t="n">
+        <f aca="false">(M11/M9)</f>
+        <v>0.116217932897295</v>
+      </c>
+      <c r="N12" s="17" t="n">
+        <f aca="false">(N11/N9)</f>
+        <v>0.113836759992436</v>
+      </c>
+      <c r="O12" s="17" t="n">
+        <f aca="false">(O11/O9)</f>
+        <v>0.111837452328384</v>
+      </c>
+      <c r="P12" s="17" t="n">
+        <f aca="false">(P11/P9)</f>
+        <v>0.108419967610487</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <f aca="false">(Q11/Q9)</f>
+        <v>0.100575915077303</v>
+      </c>
+      <c r="R12" s="17" t="n">
+        <f aca="false">(R11/R9)</f>
+        <v>0.0959378725440177</v>
+      </c>
+      <c r="S12" s="17" t="n">
+        <f aca="false">(S11/S9)</f>
+        <v>0.0952055202361177</v>
+      </c>
+      <c r="T12" s="17" t="n">
+        <f aca="false">(T11/T9)</f>
+        <v>0.0950086169347172</v>
+      </c>
+      <c r="U12" s="17" t="n">
+        <f aca="false">(U11/U9)</f>
+        <v>0.0981308850002798</v>
+      </c>
+      <c r="V12" s="17" t="n">
+        <f aca="false">(V11/V9)</f>
+        <v>0.10338598576085</v>
+      </c>
+      <c r="W12" s="17" t="n">
+        <f aca="false">(W11/W9)</f>
+        <v>0.110766990609292</v>
+      </c>
+      <c r="X12" s="17" t="n">
+        <f aca="false">(X11/X9)</f>
+        <v>0.11397913596307</v>
+      </c>
+      <c r="Y12" s="17" t="n">
+        <f aca="false">(Y11/Y9)</f>
+        <v>0.116012333298945</v>
+      </c>
+      <c r="Z12" s="17" t="n">
+        <f aca="false">(Z11/Z9)</f>
+        <v>0.1266418692375</v>
+      </c>
+      <c r="AA12" s="17" t="n">
+        <f aca="false">(AA11/AA9)</f>
+        <v>0.133737613944308</v>
+      </c>
+      <c r="AB12" s="18" t="n">
+        <f aca="false">(AB11/AB9)</f>
+        <v>0.139621627489833</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5"/>
+      <c r="C13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="n">
+        <v>10501</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>24496</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>25561</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>17283</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>15831</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>9641</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>-672</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>-5737</v>
+      </c>
+      <c r="M13" s="13" t="n">
+        <v>-4169</v>
+      </c>
+      <c r="N13" s="13" t="n">
+        <v>-14437</v>
+      </c>
+      <c r="O13" s="13" t="n">
+        <v>-21987</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>-37095</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>-34750</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>-36302</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>-19489</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>3914</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>15456</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>10744</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>2213</v>
+      </c>
+      <c r="AB13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <v>436154</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>419555</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>603908</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>633990</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>682717</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>721560</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>460221</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>181073</v>
+      </c>
+      <c r="M14" s="13" t="n">
+        <v>94658</v>
+      </c>
+      <c r="N14" s="13" t="n">
+        <v>98583</v>
+      </c>
+      <c r="O14" s="13" t="n">
+        <v>15453</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>-74058</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>-10870</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>64839</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>142509</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>222217</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>397298</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>517349</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>250180</v>
+      </c>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="24" t="n">
+        <v>446655</v>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>444051</v>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>629469</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>651273</v>
+      </c>
+      <c r="I15" s="25" t="n">
+        <v>698548</v>
+      </c>
+      <c r="J15" s="25" t="n">
+        <v>731201</v>
+      </c>
+      <c r="K15" s="25" t="n">
+        <v>459549</v>
+      </c>
+      <c r="L15" s="25" t="n">
+        <v>175336</v>
+      </c>
+      <c r="M15" s="25" t="n">
+        <v>90489</v>
+      </c>
+      <c r="N15" s="25" t="n">
+        <v>84146</v>
+      </c>
+      <c r="O15" s="25" t="n">
+        <v>-6534</v>
+      </c>
+      <c r="P15" s="25" t="n">
+        <v>-111153</v>
+      </c>
+      <c r="Q15" s="25" t="n">
+        <v>-45620</v>
+      </c>
+      <c r="R15" s="25" t="n">
+        <v>28537</v>
+      </c>
+      <c r="S15" s="25" t="n">
+        <v>123020</v>
+      </c>
+      <c r="T15" s="25" t="n">
+        <v>226131</v>
+      </c>
+      <c r="U15" s="25" t="n">
+        <v>412754</v>
+      </c>
+      <c r="V15" s="25" t="n">
+        <v>528093</v>
+      </c>
+      <c r="W15" s="25" t="n">
+        <v>252393</v>
+      </c>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5"/>
+      <c r="C16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>418846</v>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>441881</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>454591</v>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>466371</v>
+      </c>
+      <c r="I16" s="13" t="n">
+        <v>482957</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>492527</v>
+      </c>
+      <c r="K16" s="13" t="n">
+        <v>519779</v>
+      </c>
+      <c r="L16" s="13" t="n">
+        <v>494997</v>
+      </c>
+      <c r="M16" s="13" t="n">
+        <v>486575</v>
+      </c>
+      <c r="N16" s="13" t="n">
+        <v>471999</v>
+      </c>
+      <c r="O16" s="13" t="n">
+        <v>454648</v>
+      </c>
+      <c r="P16" s="13" t="n">
+        <v>425715</v>
+      </c>
+      <c r="Q16" s="13" t="n">
+        <v>427595</v>
+      </c>
+      <c r="R16" s="13" t="n">
+        <v>420290</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <v>410583</v>
+      </c>
+      <c r="T16" s="13" t="n">
+        <v>393181</v>
+      </c>
+      <c r="U16" s="13" t="n">
+        <v>372777</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>360617</v>
+      </c>
+      <c r="W16" s="13" t="n">
+        <v>341315</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>337380</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>329251</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>320656</v>
+      </c>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <v>368618</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>384828</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>371934</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>387355</v>
+      </c>
+      <c r="I17" s="13" t="n">
+        <v>371478</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>385361</v>
+      </c>
+      <c r="K17" s="13" t="n">
+        <v>386324</v>
+      </c>
+      <c r="L17" s="13" t="n">
+        <v>384933</v>
+      </c>
+      <c r="M17" s="13" t="n">
+        <v>382047</v>
+      </c>
+      <c r="N17" s="13" t="n">
+        <v>387911</v>
+      </c>
+      <c r="O17" s="13" t="n">
+        <v>402950</v>
+      </c>
+      <c r="P17" s="13" t="n">
+        <v>390419</v>
+      </c>
+      <c r="Q17" s="13" t="n">
+        <v>395830</v>
+      </c>
+      <c r="R17" s="13" t="n">
+        <v>422568</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>410611</v>
+      </c>
+      <c r="T17" s="13" t="n">
+        <v>424523</v>
+      </c>
+      <c r="U17" s="13" t="n">
+        <v>427721</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>418703</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>493776</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>450744</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>464417</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>436124</v>
+      </c>
+      <c r="AB17" s="20"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="24" t="n">
+        <v>50228</v>
+      </c>
+      <c r="F18" s="25" t="n">
+        <v>57053</v>
+      </c>
+      <c r="G18" s="25" t="n">
+        <v>82657</v>
+      </c>
+      <c r="H18" s="25" t="n">
+        <v>79016</v>
+      </c>
+      <c r="I18" s="25" t="n">
+        <v>111479</v>
+      </c>
+      <c r="J18" s="25" t="n">
+        <v>107166</v>
+      </c>
+      <c r="K18" s="25" t="n">
+        <v>133455</v>
+      </c>
+      <c r="L18" s="25" t="n">
+        <v>110064</v>
+      </c>
+      <c r="M18" s="25" t="n">
+        <v>104528</v>
+      </c>
+      <c r="N18" s="25" t="n">
+        <v>84088</v>
+      </c>
+      <c r="O18" s="25" t="n">
+        <v>51698</v>
+      </c>
+      <c r="P18" s="25" t="n">
+        <v>35296</v>
+      </c>
+      <c r="Q18" s="25" t="n">
+        <v>31765</v>
+      </c>
+      <c r="R18" s="25" t="n">
+        <v>-2278</v>
+      </c>
+      <c r="S18" s="25" t="n">
+        <v>-28</v>
+      </c>
+      <c r="T18" s="25" t="n">
+        <v>-31342</v>
+      </c>
+      <c r="U18" s="25" t="n">
+        <v>-54944</v>
+      </c>
+      <c r="V18" s="25" t="n">
+        <v>-58086</v>
+      </c>
+      <c r="W18" s="25" t="n">
+        <v>-152461</v>
+      </c>
+      <c r="X18" s="25" t="n">
+        <v>-113364</v>
+      </c>
+      <c r="Y18" s="25" t="n">
+        <v>-135166</v>
+      </c>
+      <c r="Z18" s="25" t="n">
+        <v>-115468</v>
+      </c>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:Z29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.59"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="35" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D6" s="35" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E6" s="35" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="35" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G6" s="35" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H6" s="35" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I6" s="35" t="n">
+        <v>2004</v>
+      </c>
+      <c r="J6" s="35" t="n">
+        <v>2005</v>
+      </c>
+      <c r="K6" s="35" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L6" s="35" t="n">
+        <v>2007</v>
+      </c>
+      <c r="M6" s="35" t="n">
+        <v>2008</v>
+      </c>
+      <c r="N6" s="35" t="n">
+        <v>2009</v>
+      </c>
+      <c r="O6" s="35" t="n">
+        <v>2010</v>
+      </c>
+      <c r="P6" s="35" t="n">
+        <v>2011</v>
+      </c>
+      <c r="Q6" s="35" t="n">
+        <v>2012</v>
+      </c>
+      <c r="R6" s="35" t="n">
+        <v>2013</v>
+      </c>
+      <c r="S6" s="35" t="n">
+        <v>2014</v>
+      </c>
+      <c r="T6" s="35" t="n">
+        <v>2015</v>
+      </c>
+      <c r="U6" s="35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="V6" s="35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="W6" s="35" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X6" s="35" t="n">
+        <v>2019</v>
+      </c>
+      <c r="Y6" s="35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Z6" s="35"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="36" t="n">
+        <v>81227</v>
+      </c>
+      <c r="D7" s="36" t="n">
+        <v>127365</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>362468</v>
+      </c>
+      <c r="F7" s="36" t="n">
+        <v>414772</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>446655</v>
+      </c>
+      <c r="H7" s="36" t="n">
+        <v>444051</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>629469</v>
+      </c>
+      <c r="J7" s="36" t="n">
+        <v>651273</v>
+      </c>
+      <c r="K7" s="36" t="n">
+        <v>698548</v>
+      </c>
+      <c r="L7" s="36" t="n">
+        <v>731201</v>
+      </c>
+      <c r="M7" s="36" t="n">
+        <v>459549</v>
+      </c>
+      <c r="N7" s="36" t="n">
+        <v>175336</v>
+      </c>
+      <c r="O7" s="36" t="n">
+        <v>90489</v>
+      </c>
+      <c r="P7" s="36" t="n">
+        <v>84146</v>
+      </c>
+      <c r="Q7" s="36" t="n">
+        <v>-6534</v>
+      </c>
+      <c r="R7" s="36" t="n">
+        <v>-111153</v>
+      </c>
+      <c r="S7" s="36" t="n">
+        <v>-45620</v>
+      </c>
+      <c r="T7" s="36" t="n">
+        <v>28537</v>
+      </c>
+      <c r="U7" s="36" t="n">
+        <v>123020</v>
+      </c>
+      <c r="V7" s="36" t="n">
+        <v>226131</v>
+      </c>
+      <c r="W7" s="36" t="n">
+        <v>412754</v>
+      </c>
+      <c r="X7" s="36" t="n">
+        <v>528093</v>
+      </c>
+      <c r="Y7" s="36" t="n">
+        <v>252393</v>
+      </c>
+      <c r="Z7" s="36"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="36" t="n">
+        <v>24032</v>
+      </c>
+      <c r="D8" s="36" t="n">
+        <v>28243</v>
+      </c>
+      <c r="E8" s="36" t="n">
+        <v>31587</v>
+      </c>
+      <c r="F8" s="36" t="n">
+        <v>20724</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>10501</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>24496</v>
+      </c>
+      <c r="I8" s="36" t="n">
+        <v>25561</v>
+      </c>
+      <c r="J8" s="36" t="n">
+        <v>17283</v>
+      </c>
+      <c r="K8" s="36" t="n">
+        <v>15831</v>
+      </c>
+      <c r="L8" s="36" t="n">
+        <v>9641</v>
+      </c>
+      <c r="M8" s="36" t="n">
+        <v>-672</v>
+      </c>
+      <c r="N8" s="36" t="n">
+        <v>-5737</v>
+      </c>
+      <c r="O8" s="36" t="n">
+        <v>-4169</v>
+      </c>
+      <c r="P8" s="36" t="n">
+        <v>-14437</v>
+      </c>
+      <c r="Q8" s="36" t="n">
+        <v>-21987</v>
+      </c>
+      <c r="R8" s="36" t="n">
+        <v>-37095</v>
+      </c>
+      <c r="S8" s="36" t="n">
+        <v>-34750</v>
+      </c>
+      <c r="T8" s="36" t="n">
+        <v>-36302</v>
+      </c>
+      <c r="U8" s="36" t="n">
+        <v>-19489</v>
+      </c>
+      <c r="V8" s="36" t="n">
+        <v>3914</v>
+      </c>
+      <c r="W8" s="36" t="n">
+        <v>15456</v>
+      </c>
+      <c r="X8" s="36" t="n">
+        <v>10744</v>
+      </c>
+      <c r="Y8" s="36" t="n">
+        <v>2213</v>
+      </c>
+      <c r="Z8" s="36"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="36" t="n">
+        <v>57195</v>
+      </c>
+      <c r="D9" s="36" t="n">
+        <v>99122</v>
+      </c>
+      <c r="E9" s="36" t="n">
+        <v>330881</v>
+      </c>
+      <c r="F9" s="36" t="n">
+        <v>394048</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>436154</v>
+      </c>
+      <c r="H9" s="36" t="n">
+        <v>419555</v>
+      </c>
+      <c r="I9" s="36" t="n">
+        <v>603908</v>
+      </c>
+      <c r="J9" s="36" t="n">
+        <v>633990</v>
+      </c>
+      <c r="K9" s="36" t="n">
+        <v>682717</v>
+      </c>
+      <c r="L9" s="36" t="n">
+        <v>721560</v>
+      </c>
+      <c r="M9" s="36" t="n">
+        <v>460221</v>
+      </c>
+      <c r="N9" s="36" t="n">
+        <v>181073</v>
+      </c>
+      <c r="O9" s="36" t="n">
+        <v>94658</v>
+      </c>
+      <c r="P9" s="36" t="n">
+        <v>98583</v>
+      </c>
+      <c r="Q9" s="36" t="n">
+        <v>15453</v>
+      </c>
+      <c r="R9" s="36" t="n">
+        <v>-74058</v>
+      </c>
+      <c r="S9" s="36" t="n">
+        <v>-10870</v>
+      </c>
+      <c r="T9" s="36" t="n">
+        <v>64839</v>
+      </c>
+      <c r="U9" s="36" t="n">
+        <v>142509</v>
+      </c>
+      <c r="V9" s="36" t="n">
+        <v>222217</v>
+      </c>
+      <c r="W9" s="36" t="n">
+        <v>397298</v>
+      </c>
+      <c r="X9" s="36" t="n">
+        <v>517349</v>
+      </c>
+      <c r="Y9" s="36" t="n">
+        <v>250180</v>
+      </c>
+      <c r="Z9" s="36"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="36" t="n">
+        <v>528093</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="36" t="n">
+        <v>10744</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="36" t="n">
+        <v>517349</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B12:R14"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:AB15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="37.8"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,782 +2197,782 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>2003</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>2005</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>2006</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="4" t="n">
         <v>2009</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="X7" s="3" t="n">
+      <c r="X7" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="Y7" s="4" t="n">
         <v>2022</v>
       </c>
-      <c r="Z7" s="3" t="n">
+      <c r="Z7" s="4" t="n">
         <v>2023</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AA7" s="4" t="n">
         <v>2024</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AB7" s="4" t="n">
         <v>2025</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="41" t="n">
         <v>41035271</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="41" t="n">
         <v>41827836</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="41" t="n">
         <v>42547454</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="41" t="n">
         <v>43296335</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="41" t="n">
         <v>44009969</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="41" t="n">
         <v>44784659</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="41" t="n">
         <v>45668938</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="41" t="n">
         <v>46239271</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="41" t="n">
         <v>46486621</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="41" t="n">
         <v>46667175</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="41" t="n">
         <v>46818216</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="P8" s="41" t="n">
         <v>46712650</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="Q8" s="41" t="n">
         <v>46495744</v>
       </c>
-      <c r="R8" s="7" t="n">
+      <c r="R8" s="41" t="n">
         <v>46425722</v>
       </c>
-      <c r="S8" s="7" t="n">
+      <c r="S8" s="41" t="n">
         <v>46418884</v>
       </c>
-      <c r="T8" s="7" t="n">
+      <c r="T8" s="41" t="n">
         <v>46497393</v>
       </c>
-      <c r="U8" s="7" t="n">
+      <c r="U8" s="41" t="n">
         <v>46645070</v>
       </c>
-      <c r="V8" s="7" t="n">
+      <c r="V8" s="41" t="n">
         <v>46918951</v>
       </c>
-      <c r="W8" s="7" t="n">
+      <c r="W8" s="41" t="n">
         <v>47318050</v>
       </c>
-      <c r="X8" s="7" t="n">
+      <c r="X8" s="41" t="n">
         <v>47400798</v>
       </c>
-      <c r="Y8" s="7" t="n">
+      <c r="Y8" s="41" t="n">
         <v>47486727</v>
       </c>
-      <c r="Z8" s="7" t="n">
+      <c r="Z8" s="41" t="n">
         <v>48085361</v>
       </c>
-      <c r="AA8" s="7" t="n">
+      <c r="AA8" s="41" t="n">
         <v>48619695</v>
       </c>
-      <c r="AB8" s="7" t="n">
+      <c r="AB8" s="42" t="n">
         <v>49077984</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="13" t="n">
         <v>39297299</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="13" t="n">
         <v>39465808</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="13" t="n">
         <v>39646666</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="13" t="n">
         <v>39866131</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="13" t="n">
         <v>40079053</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="13" t="n">
         <v>40335225</v>
       </c>
-      <c r="K9" s="9" t="n">
+      <c r="K9" s="13" t="n">
         <v>40582643</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="13" t="n">
         <v>40852612</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="13" t="n">
         <v>41084042</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="13" t="n">
         <v>41354734</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="13" t="n">
         <v>41582186</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="P9" s="13" t="n">
         <v>41648066</v>
       </c>
-      <c r="Q9" s="9" t="n">
+      <c r="Q9" s="13" t="n">
         <v>41819392</v>
       </c>
-      <c r="R9" s="9" t="n">
+      <c r="R9" s="13" t="n">
         <v>41971737</v>
       </c>
-      <c r="S9" s="9" t="n">
+      <c r="S9" s="13" t="n">
         <v>41999550</v>
       </c>
-      <c r="T9" s="9" t="n">
+      <c r="T9" s="13" t="n">
         <v>42079740</v>
       </c>
-      <c r="U9" s="9" t="n">
+      <c r="U9" s="13" t="n">
         <v>42067748</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="V9" s="13" t="n">
         <v>42068189</v>
       </c>
-      <c r="W9" s="9" t="n">
+      <c r="W9" s="13" t="n">
         <v>42076772</v>
       </c>
-      <c r="X9" s="9" t="n">
+      <c r="X9" s="13" t="n">
         <v>41998096</v>
       </c>
-      <c r="Y9" s="9" t="n">
+      <c r="Y9" s="13" t="n">
         <v>41977681</v>
       </c>
-      <c r="Z9" s="9" t="n">
+      <c r="Z9" s="13" t="n">
         <v>41995741</v>
       </c>
-      <c r="AA9" s="9" t="n">
+      <c r="AA9" s="13" t="n">
         <v>42117413</v>
       </c>
-      <c r="AB9" s="9" t="n">
+      <c r="AB9" s="43" t="n">
         <v>42225636</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="13" t="n">
         <v>1737972</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="13" t="n">
         <v>2362027</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="13" t="n">
         <v>2900788</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="13" t="n">
         <v>3430204</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="13" t="n">
         <v>3930916</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="13" t="n">
         <v>4449434</v>
       </c>
-      <c r="K10" s="9" t="n">
+      <c r="K10" s="13" t="n">
         <v>5086295</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="13" t="n">
         <v>5386659</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="13" t="n">
         <v>5402579</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="N10" s="13" t="n">
         <v>5312440</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="13" t="n">
         <v>5236030</v>
       </c>
-      <c r="P10" s="9" t="n">
+      <c r="P10" s="13" t="n">
         <v>5064584</v>
       </c>
-      <c r="Q10" s="9" t="n">
+      <c r="Q10" s="13" t="n">
         <v>4676352</v>
       </c>
-      <c r="R10" s="9" t="n">
+      <c r="R10" s="13" t="n">
         <v>4453985</v>
       </c>
-      <c r="S10" s="9" t="n">
+      <c r="S10" s="13" t="n">
         <v>4419334</v>
       </c>
-      <c r="T10" s="9" t="n">
+      <c r="T10" s="13" t="n">
         <v>4417653</v>
       </c>
-      <c r="U10" s="9" t="n">
+      <c r="U10" s="13" t="n">
         <v>4577322</v>
       </c>
-      <c r="V10" s="9" t="n">
+      <c r="V10" s="13" t="n">
         <v>4850762</v>
       </c>
-      <c r="W10" s="9" t="n">
+      <c r="W10" s="13" t="n">
         <v>5241278</v>
       </c>
-      <c r="X10" s="9" t="n">
+      <c r="X10" s="13" t="n">
         <v>5402702</v>
       </c>
-      <c r="Y10" s="9" t="n">
+      <c r="Y10" s="13" t="n">
         <v>5509046</v>
       </c>
-      <c r="Z10" s="9" t="n">
+      <c r="Z10" s="13" t="n">
         <v>6089620</v>
       </c>
-      <c r="AA10" s="9" t="n">
+      <c r="AA10" s="13" t="n">
         <v>6502282</v>
       </c>
-      <c r="AB10" s="9" t="n">
+      <c r="AB10" s="43" t="n">
         <v>6852348</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="45" t="n">
         <f aca="false">(E10/E8)</f>
         <v>0.0423531259242811</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="45" t="n">
         <f aca="false">(F10/F8)</f>
         <v>0.05647021758429</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="45" t="n">
         <f aca="false">(G10/G8)</f>
         <v>0.0681777104688802</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="45" t="n">
         <f aca="false">(H10/H8)</f>
         <v>0.0792261977832535</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="45" t="n">
         <f aca="false">(I10/I8)</f>
         <v>0.0893187632102172</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="45" t="n">
         <f aca="false">(J10/J8)</f>
         <v>0.0993517445337699</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="45" t="n">
         <f aca="false">(K10/K8)</f>
         <v>0.111373183234521</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="45" t="n">
         <f aca="false">(L10/L8)</f>
         <v>0.116495327099772</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="45" t="n">
         <f aca="false">(M10/M8)</f>
         <v>0.116217932897295</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="45" t="n">
         <f aca="false">(N10/N8)</f>
         <v>0.113836759992436</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="45" t="n">
         <f aca="false">(O10/O8)</f>
         <v>0.111837452328384</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="45" t="n">
         <f aca="false">(P10/P8)</f>
         <v>0.108419967610487</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="45" t="n">
         <f aca="false">(Q10/Q8)</f>
         <v>0.100575915077303</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="45" t="n">
         <f aca="false">(R10/R8)</f>
         <v>0.0959378725440177</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="45" t="n">
         <f aca="false">(S10/S8)</f>
         <v>0.0952055202361177</v>
       </c>
-      <c r="T11" s="11" t="n">
+      <c r="T11" s="45" t="n">
         <f aca="false">(T10/T8)</f>
         <v>0.0950086169347172</v>
       </c>
-      <c r="U11" s="11" t="n">
+      <c r="U11" s="45" t="n">
         <f aca="false">(U10/U8)</f>
         <v>0.0981308850002798</v>
       </c>
-      <c r="V11" s="11" t="n">
+      <c r="V11" s="45" t="n">
         <f aca="false">(V10/V8)</f>
         <v>0.10338598576085</v>
       </c>
-      <c r="W11" s="11" t="n">
+      <c r="W11" s="45" t="n">
         <f aca="false">(W10/W8)</f>
         <v>0.110766990609292</v>
       </c>
-      <c r="X11" s="11" t="n">
+      <c r="X11" s="45" t="n">
         <f aca="false">(X10/X8)</f>
         <v>0.11397913596307</v>
       </c>
-      <c r="Y11" s="11" t="n">
+      <c r="Y11" s="45" t="n">
         <f aca="false">(Y10/Y8)</f>
         <v>0.116012333298945</v>
       </c>
-      <c r="Z11" s="11" t="n">
+      <c r="Z11" s="45" t="n">
         <f aca="false">(Z10/Z8)</f>
         <v>0.1266418692375</v>
       </c>
-      <c r="AA11" s="11" t="n">
+      <c r="AA11" s="45" t="n">
         <f aca="false">(AA10/AA8)</f>
         <v>0.133737613944308</v>
       </c>
-      <c r="AB11" s="11" t="n">
+      <c r="AB11" s="46" t="n">
         <f aca="false">(AB10/AB8)</f>
         <v>0.139621627489833</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="12" t="n">
         <v>4192287</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="13" t="n">
         <v>4322063</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="13" t="n">
         <v>4441947</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="13" t="n">
         <v>4567166</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="13" t="n">
         <v>4681039</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="13" t="n">
         <v>4801628</v>
       </c>
-      <c r="K12" s="9" t="n">
+      <c r="K12" s="13" t="n">
         <v>4928093</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="13" t="n">
         <v>4981276</v>
       </c>
-      <c r="M12" s="9" t="n">
+      <c r="M12" s="13" t="n">
         <v>4989631</v>
       </c>
-      <c r="N12" s="9" t="n">
+      <c r="N12" s="13" t="n">
         <v>4999211</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="O12" s="13" t="n">
         <v>5009647</v>
       </c>
-      <c r="P12" s="9" t="n">
+      <c r="P12" s="13" t="n">
         <v>4988365</v>
       </c>
-      <c r="Q12" s="9" t="n">
+      <c r="Q12" s="13" t="n">
         <v>4960213</v>
       </c>
-      <c r="R12" s="9" t="n">
+      <c r="R12" s="13" t="n">
         <v>4945092</v>
       </c>
-      <c r="S12" s="9" t="n">
+      <c r="S12" s="13" t="n">
         <v>4939888</v>
       </c>
-      <c r="T12" s="9" t="n">
+      <c r="T12" s="13" t="n">
         <v>4943821</v>
       </c>
-      <c r="U12" s="9" t="n">
+      <c r="U12" s="13" t="n">
         <v>4958584</v>
       </c>
-      <c r="V12" s="9" t="n">
+      <c r="V12" s="13" t="n">
         <v>4989308</v>
       </c>
-      <c r="W12" s="9" t="n">
+      <c r="W12" s="13" t="n">
         <v>5046482</v>
       </c>
-      <c r="X12" s="9" t="n">
+      <c r="X12" s="13" t="n">
         <v>5067911</v>
       </c>
-      <c r="Y12" s="9" t="n">
+      <c r="Y12" s="13" t="n">
         <v>5108116</v>
       </c>
-      <c r="Z12" s="9" t="n">
+      <c r="Z12" s="13" t="n">
         <v>5216195</v>
       </c>
-      <c r="AA12" s="9" t="n">
+      <c r="AA12" s="13" t="n">
         <v>5319285</v>
       </c>
-      <c r="AB12" s="9" t="n">
+      <c r="AB12" s="14" t="n">
         <v>5414296</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="12" t="n">
         <v>3948949</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="13" t="n">
         <v>3979291</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="13" t="n">
         <v>4009864</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="13" t="n">
         <v>4044879</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="13" t="n">
         <v>4076241</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="13" t="n">
         <v>4110280</v>
       </c>
-      <c r="K13" s="9" t="n">
+      <c r="K13" s="13" t="n">
         <v>4144983</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="13" t="n">
         <v>4177094</v>
       </c>
-      <c r="M13" s="9" t="n">
+      <c r="M13" s="13" t="n">
         <v>4201442</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="13" t="n">
         <v>4232425</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="13" t="n">
         <v>4254668</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="P13" s="13" t="n">
         <v>4259962</v>
       </c>
-      <c r="Q13" s="9" t="n">
+      <c r="Q13" s="13" t="n">
         <v>4274822</v>
       </c>
-      <c r="R13" s="9" t="n">
+      <c r="R13" s="13" t="n">
         <v>4289473</v>
       </c>
-      <c r="S13" s="9" t="n">
+      <c r="S13" s="13" t="n">
         <v>4293078</v>
       </c>
-      <c r="T13" s="9" t="n">
+      <c r="T13" s="13" t="n">
         <v>4304348</v>
       </c>
-      <c r="U13" s="9" t="n">
+      <c r="U13" s="13" t="n">
         <v>4304506</v>
       </c>
-      <c r="V13" s="9" t="n">
+      <c r="V13" s="13" t="n">
         <v>4307456</v>
       </c>
-      <c r="W13" s="9" t="n">
+      <c r="W13" s="13" t="n">
         <v>4311840</v>
       </c>
-      <c r="X13" s="9" t="n">
+      <c r="X13" s="13" t="n">
         <v>4313310</v>
       </c>
-      <c r="Y13" s="9" t="n">
+      <c r="Y13" s="13" t="n">
         <v>4319024</v>
       </c>
-      <c r="Z13" s="9" t="n">
+      <c r="Z13" s="13" t="n">
         <v>4328039</v>
       </c>
-      <c r="AA13" s="9" t="n">
+      <c r="AA13" s="13" t="n">
         <v>4349683</v>
       </c>
-      <c r="AB13" s="9" t="n">
+      <c r="AB13" s="14" t="n">
         <v>4368492</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="12" t="n">
         <v>243338</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="13" t="n">
         <v>342771</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="13" t="n">
         <v>432083</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="13" t="n">
         <v>522288</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="13" t="n">
         <v>604798</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="13" t="n">
         <v>691349</v>
       </c>
-      <c r="K14" s="9" t="n">
+      <c r="K14" s="13" t="n">
         <v>783109</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="L14" s="13" t="n">
         <v>804182</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="M14" s="13" t="n">
         <v>788189</v>
       </c>
-      <c r="N14" s="9" t="n">
+      <c r="N14" s="13" t="n">
         <v>766786</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="13" t="n">
         <v>754979</v>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="P14" s="13" t="n">
         <v>728403</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="Q14" s="13" t="n">
         <v>685391</v>
       </c>
-      <c r="R14" s="9" t="n">
+      <c r="R14" s="13" t="n">
         <v>655619</v>
       </c>
-      <c r="S14" s="9" t="n">
+      <c r="S14" s="13" t="n">
         <v>646810</v>
       </c>
-      <c r="T14" s="9" t="n">
+      <c r="T14" s="13" t="n">
         <v>639473</v>
       </c>
-      <c r="U14" s="9" t="n">
+      <c r="U14" s="13" t="n">
         <v>654078</v>
       </c>
-      <c r="V14" s="9" t="n">
+      <c r="V14" s="13" t="n">
         <v>681852</v>
       </c>
-      <c r="W14" s="9" t="n">
+      <c r="W14" s="13" t="n">
         <v>734642</v>
       </c>
-      <c r="X14" s="9" t="n">
+      <c r="X14" s="13" t="n">
         <v>754601</v>
       </c>
-      <c r="Y14" s="9" t="n">
+      <c r="Y14" s="13" t="n">
         <v>789092</v>
       </c>
-      <c r="Z14" s="9" t="n">
+      <c r="Z14" s="13" t="n">
         <v>888156</v>
       </c>
-      <c r="AA14" s="9" t="n">
+      <c r="AA14" s="13" t="n">
         <v>969602</v>
       </c>
-      <c r="AB14" s="9" t="n">
+      <c r="AB14" s="14" t="n">
         <v>1045804</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="11" t="n">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="50" t="n">
         <f aca="false">(E14/E12)</f>
         <v>0.0580442130989601</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="51" t="n">
         <f aca="false">(F14/F12)</f>
         <v>0.0793072659977423</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="51" t="n">
         <f aca="false">(G14/G12)</f>
         <v>0.0972733353189491</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="51" t="n">
         <f aca="false">(H14/H12)</f>
         <v>0.114357130877222</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="51" t="n">
         <f aca="false">(I14/I12)</f>
         <v>0.129201658007976</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="51" t="n">
         <f aca="false">(J14/J12)</f>
         <v>0.143982207701221</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="51" t="n">
         <f aca="false">(K14/K12)</f>
         <v>0.158907106663774</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="51" t="n">
         <f aca="false">(L14/L12)</f>
         <v>0.161440964122446</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="51" t="n">
         <f aca="false">(M14/M12)</f>
         <v>0.157965388622926</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="51" t="n">
         <f aca="false">(N14/N12)</f>
         <v>0.153381403585486</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="51" t="n">
         <f aca="false">(O14/O12)</f>
         <v>0.150705029715667</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="51" t="n">
         <f aca="false">(P14/P12)</f>
         <v>0.146020389446241</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="51" t="n">
         <f aca="false">(Q14/Q12)</f>
         <v>0.138177735512568</v>
       </c>
-      <c r="R15" s="11" t="n">
+      <c r="R15" s="51" t="n">
         <f aca="false">(R14/R12)</f>
         <v>0.132579737646944</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="51" t="n">
         <f aca="false">(S14/S12)</f>
         <v>0.130936166973826</v>
       </c>
-      <c r="T15" s="11" t="n">
+      <c r="T15" s="51" t="n">
         <f aca="false">(T14/T12)</f>
         <v>0.129347927443166</v>
       </c>
-      <c r="U15" s="11" t="n">
+      <c r="U15" s="51" t="n">
         <f aca="false">(U14/U12)</f>
         <v>0.131908222186011</v>
       </c>
-      <c r="V15" s="11" t="n">
+      <c r="V15" s="51" t="n">
         <f aca="false">(V14/V12)</f>
         <v>0.136662639388067</v>
       </c>
-      <c r="W15" s="11" t="n">
+      <c r="W15" s="51" t="n">
         <f aca="false">(W14/W12)</f>
         <v>0.145575075864731</v>
       </c>
-      <c r="X15" s="11" t="n">
+      <c r="X15" s="51" t="n">
         <f aca="false">(X14/X12)</f>
         <v>0.148897839760801</v>
       </c>
-      <c r="Y15" s="11" t="n">
+      <c r="Y15" s="51" t="n">
         <f aca="false">(Y14/Y12)</f>
         <v>0.154478089377767</v>
       </c>
-      <c r="Z15" s="11" t="n">
+      <c r="Z15" s="51" t="n">
         <f aca="false">(Z14/Z12)</f>
         <v>0.170268941249321</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="51" t="n">
         <f aca="false">(AA14/AA12)</f>
         <v>0.182280513264471</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="52" t="n">
         <f aca="false">(AB14/AB12)</f>
         <v>0.193156044663978</v>
       </c>
